--- a/SOTA/wwwroot/Reports/FinishedReports/Tip1/Rabota/Комплексная8класс/МАОУ лицей №48.xlsx
+++ b/SOTA/wwwroot/Reports/FinishedReports/Tip1/Rabota/Комплексная8класс/МАОУ лицей №48.xlsx
@@ -163,253 +163,253 @@
     <t>МАОУ лицей №48</t>
   </si>
   <si>
+    <t>88Х</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Куценко  С.А.</t>
+  </si>
+  <si>
     <t>88И</t>
   </si>
   <si>
+    <t xml:space="preserve">Кабертай  А.Б.</t>
+  </si>
+  <si>
+    <t>88Э</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есаева  Д.Н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горбатюк  Д.О.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Усманова  А.Р.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Журавлева  М.М.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подольский  А.В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заика  К.В.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нечкина  А.Р.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Грабко  В.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жуков  Е.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анозов  Д.И.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гаспарян  Э.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сибирко  О.Д.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Саруханова  М.С.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Недорубова  А.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курочкина  М.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фоменко  Д.Р.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тимургалеев  М.Д.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поталашкин  А.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сивина  С.М.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Степаненко  Е.Е.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Котовская  С.С.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гулян  Р.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юшко  Г.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Турк  А.П.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Косинская  Е.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жеребцова  А.С.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владимиров  А.С.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сторожук  А.И.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ступак  В.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шевцова  П.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яковлева  И.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юфимов  В.Р.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карпова  А.Н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лапина  Д.И.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трухановский  Г.В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Харченко  Г.В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Филимонова  Я.Д.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лавренко  С.К.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Усок  Д.К.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сахно  П.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Селиванов  Е.Е.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Филиппсон  А.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мустафина  Ю.Р.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Харитонова  А.Е.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шайнурова  Д.К.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гойкалова  П.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фадеев  А.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванов  Р.Д.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Десенко  Е.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бондарь  И.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вальтер  М.С.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аверкина  У.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стружкина  К.Б.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дончевская  У.В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миронов  М.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мороз  Ю.Н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удовенко  А.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Азизян  С.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нечаев  Б.А.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Медянцев  Е.Д.</t>
   </si>
   <si>
-    <t xml:space="preserve">Гойкалова  П.А.</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бондарь  И.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Журавлева  М.М.</t>
+    <t xml:space="preserve">Миннахмедов  А.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кубанцева  Д.Д.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пашуренко  А.О.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аретова  Н.Д.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пикалова  Д.М.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Макичян  М.В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зима  М.Д.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Косульникова  С.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бойко  С.И.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Медянцев  Г.Д.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рыбаченок  С.Р.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Басте  Р.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Джафаров  Д.Э.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бабицкий  В.В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гончарова  А.А.</t>
   </si>
   <si>
     <t xml:space="preserve">Миннахмедова  С.А.</t>
   </si>
   <si>
-    <t xml:space="preserve">Жуков  Е.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кабертай  А.Б.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Медянцев  Г.Д.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Миннахмедов  А.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фадеев  А.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лапина  Д.И.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жеребцова  А.С.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фоменко  Д.Р.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Анозов  Д.И.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Миронов  М.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Усок  Д.К.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Яковлева  И.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Степаненко  Е.Е.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Недорубова  А.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подольский  А.В.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Нагорнюк  М.Р.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поталашкин  А.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Харченко  Г.В.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ступак  В.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Селиванов  Е.Е.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юфимов  В.Р.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юшко  Г.А.</t>
-  </si>
-  <si>
-    <t>88Э</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пашуренко  А.О.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вальтер  М.С.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Филимонова  Я.Д.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мороз  Ю.Н.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сивина  С.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Котовская  С.С.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Есаева  Д.Н.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Басте  Р.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аретова  Н.Д.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аверкина  У.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зима  М.Д.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Удовенко  А.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Филиппсон  А.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гаспарян  Э.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Горбатюк  Д.О.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Джафаров  Д.Э.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нечкина  А.Р.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стружкина  К.Б.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Косульникова  С.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шевцова  П.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мустафина  Ю.Р.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Карпова  А.Н.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Турк  А.П.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бабицкий  В.В.</t>
-  </si>
-  <si>
-    <t>88Х</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пикалова  Д.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дончевская  У.В.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лавренко  С.К.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Азизян  С.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Харитонова  А.Е.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сибирко  О.Д.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Усманова  А.Р.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Курочкина  М.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Грабко  В.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куценко  С.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бойко  С.И.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нечаев  Б.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шайнурова  Д.К.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Саруханова  М.С.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Косинская  Е.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Заика  К.В.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иванов  Р.Д.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Макичян  М.В.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Владимиров  А.С.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сахно  П.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гончарова  А.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гулян  Р.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рыбаченок  С.Р.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кубанцева  Д.Д.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Десенко  Е.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Трухановский  Г.В.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сторожук  А.И.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тимургалеев  М.Д.</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1258,7 @@
         <v>48</v>
       </c>
       <c r="E12" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="21">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="21">
         <v>1</v>
@@ -1279,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="L12" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="21">
         <v>2</v>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="21">
         <v>1</v>
@@ -1297,10 +1297,10 @@
         <v>2</v>
       </c>
       <c r="R12" s="21">
-        <v>66.67</v>
+        <v>91.67</v>
       </c>
       <c r="S12" s="21">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1311,13 +1311,13 @@
         <v>46</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="21">
         <v>1</v>
@@ -1326,28 +1326,28 @@
         <v>1</v>
       </c>
       <c r="H13" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="21">
         <v>2</v>
       </c>
       <c r="L13" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="21">
         <v>2</v>
       </c>
-      <c r="N13" s="21" t="s">
-        <v>50</v>
+      <c r="N13" s="21">
+        <v>1</v>
       </c>
       <c r="O13" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="21">
         <v>1</v>
@@ -1370,22 +1370,22 @@
         <v>46</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="21">
         <v>1</v>
       </c>
       <c r="H14" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="21">
         <v>1</v>
@@ -1399,14 +1399,14 @@
       <c r="L14" s="21">
         <v>1</v>
       </c>
-      <c r="M14" s="21" t="s">
-        <v>50</v>
+      <c r="M14" s="21">
+        <v>2</v>
       </c>
       <c r="N14" s="21">
         <v>1</v>
       </c>
       <c r="O14" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="21">
         <v>1</v>
@@ -1415,10 +1415,10 @@
         <v>2</v>
       </c>
       <c r="R14" s="21">
-        <v>66.67</v>
+        <v>100</v>
       </c>
       <c r="S14" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1429,10 +1429,10 @@
         <v>46</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="21">
         <v>1</v>
@@ -1444,10 +1444,10 @@
         <v>1</v>
       </c>
       <c r="H15" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="21">
         <v>1</v>
@@ -1456,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="21">
         <v>2</v>
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="21">
         <v>1</v>
@@ -1474,10 +1474,10 @@
         <v>2</v>
       </c>
       <c r="R15" s="21">
-        <v>100</v>
+        <v>66.67</v>
       </c>
       <c r="S15" s="21">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -1491,7 +1491,7 @@
         <v>47</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" s="21">
         <v>1</v>
@@ -1515,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="L16" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="21">
         <v>2</v>
@@ -1533,10 +1533,10 @@
         <v>2</v>
       </c>
       <c r="R16" s="21">
-        <v>83.33</v>
+        <v>91.67</v>
       </c>
       <c r="S16" s="21">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -1547,13 +1547,13 @@
         <v>46</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="21">
         <v>1</v>
@@ -1562,19 +1562,19 @@
         <v>1</v>
       </c>
       <c r="H17" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="21">
         <v>2</v>
       </c>
       <c r="L17" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="21">
         <v>2</v>
@@ -1592,10 +1592,10 @@
         <v>2</v>
       </c>
       <c r="R17" s="21">
-        <v>66.67</v>
+        <v>100</v>
       </c>
       <c r="S17" s="21">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1606,13 +1606,13 @@
         <v>46</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="21">
         <v>1</v>
@@ -1621,19 +1621,19 @@
         <v>1</v>
       </c>
       <c r="H18" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="21">
         <v>1</v>
       </c>
       <c r="J18" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="21">
         <v>2</v>
       </c>
       <c r="L18" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="21">
         <v>2</v>
@@ -1651,10 +1651,10 @@
         <v>2</v>
       </c>
       <c r="R18" s="21">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="S18" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1668,22 +1668,22 @@
         <v>47</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" s="21">
         <v>2</v>
       </c>
       <c r="F19" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="21">
         <v>1</v>
       </c>
       <c r="H19" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="21">
         <v>0</v>
@@ -1691,14 +1691,14 @@
       <c r="K19" s="21">
         <v>2</v>
       </c>
-      <c r="L19" s="21">
-        <v>0</v>
+      <c r="L19" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="M19" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="21">
         <v>1</v>
@@ -1710,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="R19" s="21">
-        <v>66.67</v>
+        <v>58.33</v>
       </c>
       <c r="S19" s="21">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         <v>46</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E20" s="21">
         <v>2</v>
       </c>
       <c r="F20" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="21">
         <v>1</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="21">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="21">
         <v>1</v>
@@ -1769,10 +1769,10 @@
         <v>2</v>
       </c>
       <c r="R20" s="21">
-        <v>50</v>
+        <v>66.67</v>
       </c>
       <c r="S20" s="21">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -1786,13 +1786,13 @@
         <v>47</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E21" s="21">
         <v>2</v>
       </c>
       <c r="F21" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="21">
         <v>1</v>
@@ -1801,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="21">
         <v>2</v>
@@ -1816,22 +1816,22 @@
         <v>2</v>
       </c>
       <c r="N21" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R21" s="21">
-        <v>25</v>
+        <v>83.33</v>
       </c>
       <c r="S21" s="21">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1842,16 +1842,16 @@
         <v>46</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E22" s="21">
         <v>2</v>
       </c>
       <c r="F22" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="21">
         <v>1</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="21">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="N22" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="21">
         <v>1</v>
@@ -1887,10 +1887,10 @@
         <v>2</v>
       </c>
       <c r="R22" s="21">
-        <v>58.33</v>
+        <v>66.67</v>
       </c>
       <c r="S22" s="21">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1901,16 +1901,16 @@
         <v>46</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E23" s="21">
         <v>2</v>
       </c>
       <c r="F23" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="21">
         <v>1</v>
@@ -1928,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="21">
         <v>2</v>
@@ -1946,10 +1946,10 @@
         <v>2</v>
       </c>
       <c r="R23" s="21">
-        <v>58.33</v>
+        <v>75</v>
       </c>
       <c r="S23" s="21">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1960,13 +1960,13 @@
         <v>46</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E24" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="21">
         <v>1</v>
@@ -1975,13 +1975,13 @@
         <v>1</v>
       </c>
       <c r="H24" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="21">
         <v>2</v>
@@ -1993,10 +1993,10 @@
         <v>2</v>
       </c>
       <c r="N24" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="21">
         <v>1</v>
@@ -2005,10 +2005,10 @@
         <v>2</v>
       </c>
       <c r="R24" s="21">
-        <v>66.67</v>
+        <v>75</v>
       </c>
       <c r="S24" s="21">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -2022,10 +2022,10 @@
         <v>47</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E25" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="21">
         <v>1</v>
@@ -2034,13 +2034,13 @@
         <v>1</v>
       </c>
       <c r="H25" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="21">
         <v>1</v>
       </c>
       <c r="J25" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="21">
         <v>2</v>
@@ -2052,19 +2052,19 @@
         <v>2</v>
       </c>
       <c r="N25" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="21">
         <v>1</v>
       </c>
       <c r="Q25" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R25" s="21">
-        <v>75</v>
+        <v>83.33</v>
       </c>
       <c r="S25" s="21">
         <v>12</v>
@@ -2081,7 +2081,7 @@
         <v>47</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E26" s="21">
         <v>1</v>
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="21">
         <v>1</v>
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="21">
         <v>1</v>
@@ -2137,10 +2137,10 @@
         <v>46</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E27" s="21">
         <v>1</v>
@@ -2164,7 +2164,7 @@
         <v>2</v>
       </c>
       <c r="L27" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="21">
         <v>2</v>
@@ -2173,19 +2173,19 @@
         <v>1</v>
       </c>
       <c r="O27" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="21">
         <v>1</v>
       </c>
       <c r="Q27" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R27" s="21">
-        <v>66.67</v>
+        <v>75</v>
       </c>
       <c r="S27" s="21">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -2199,22 +2199,22 @@
         <v>47</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E28" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="21">
         <v>1</v>
       </c>
       <c r="H28" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="21">
         <v>1</v>
@@ -2241,10 +2241,10 @@
         <v>2</v>
       </c>
       <c r="R28" s="21">
-        <v>83.33</v>
+        <v>75</v>
       </c>
       <c r="S28" s="21">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -2255,13 +2255,13 @@
         <v>46</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E29" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="21">
         <v>1</v>
@@ -2270,13 +2270,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="21">
         <v>2</v>
@@ -2288,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="N29" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="21">
         <v>1</v>
@@ -2300,10 +2300,10 @@
         <v>2</v>
       </c>
       <c r="R29" s="21">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
       <c r="S29" s="21">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -2317,7 +2317,7 @@
         <v>47</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E30" s="21">
         <v>1</v>
@@ -2341,13 +2341,13 @@
         <v>2</v>
       </c>
       <c r="L30" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="21">
         <v>2</v>
       </c>
       <c r="N30" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="21">
         <v>0</v>
@@ -2359,10 +2359,10 @@
         <v>2</v>
       </c>
       <c r="R30" s="21">
-        <v>75</v>
+        <v>58.33</v>
       </c>
       <c r="S30" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2373,55 +2373,55 @@
         <v>46</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E31" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="21">
         <v>1</v>
       </c>
       <c r="H31" s="21">
-        <v>1</v>
-      </c>
-      <c r="I31" s="21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="J31" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R31" s="21">
-        <v>100</v>
+        <v>8.33</v>
       </c>
       <c r="S31" s="21">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2432,10 +2432,10 @@
         <v>46</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E32" s="21">
         <v>1</v>
@@ -2444,13 +2444,13 @@
         <v>1</v>
       </c>
       <c r="G32" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="21">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32" s="21">
         <v>0</v>
@@ -2477,10 +2477,10 @@
         <v>2</v>
       </c>
       <c r="R32" s="21">
-        <v>41.67</v>
+        <v>75</v>
       </c>
       <c r="S32" s="21">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -2491,55 +2491,55 @@
         <v>46</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E33" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="21">
         <v>1</v>
       </c>
       <c r="H33" s="21">
-        <v>0</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="I33" s="21">
+        <v>0</v>
       </c>
       <c r="J33" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33" s="21">
         <v>0</v>
       </c>
       <c r="M33" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R33" s="21">
-        <v>8.33</v>
+        <v>83.33</v>
       </c>
       <c r="S33" s="21">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -2550,10 +2550,10 @@
         <v>46</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E34" s="21">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="21">
         <v>1</v>
@@ -2577,7 +2577,7 @@
         <v>2</v>
       </c>
       <c r="L34" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="21">
         <v>2</v>
@@ -2589,16 +2589,16 @@
         <v>0</v>
       </c>
       <c r="P34" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="21">
         <v>2</v>
       </c>
       <c r="R34" s="21">
-        <v>83.33</v>
+        <v>75</v>
       </c>
       <c r="S34" s="21">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -2612,25 +2612,25 @@
         <v>47</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E35" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="21">
         <v>2</v>
@@ -2642,10 +2642,10 @@
         <v>2</v>
       </c>
       <c r="N35" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="21">
         <v>1</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="R35" s="21">
-        <v>75</v>
+        <v>33.33</v>
       </c>
       <c r="S35" s="21">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -2668,16 +2668,16 @@
         <v>46</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E36" s="21">
         <v>2</v>
       </c>
       <c r="F36" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="21">
         <v>1</v>
@@ -2695,16 +2695,16 @@
         <v>2</v>
       </c>
       <c r="L36" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N36" s="21">
         <v>1</v>
       </c>
       <c r="O36" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="21">
         <v>1</v>
@@ -2716,7 +2716,7 @@
         <v>58.33</v>
       </c>
       <c r="S36" s="21">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -2727,16 +2727,16 @@
         <v>46</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E37" s="21">
         <v>2</v>
       </c>
       <c r="F37" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="21">
         <v>1</v>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="21">
         <v>0</v>
@@ -2757,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="M37" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N37" s="21">
         <v>1</v>
       </c>
       <c r="O37" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="21">
         <v>1</v>
@@ -2772,10 +2772,10 @@
         <v>2</v>
       </c>
       <c r="R37" s="21">
-        <v>50</v>
+        <v>66.67</v>
       </c>
       <c r="S37" s="21">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -2789,13 +2789,13 @@
         <v>47</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E38" s="21">
         <v>2</v>
       </c>
       <c r="F38" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="21">
         <v>1</v>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="21">
         <v>0</v>
@@ -2828,10 +2828,10 @@
         <v>1</v>
       </c>
       <c r="Q38" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R38" s="21">
-        <v>58.33</v>
+        <v>66.67</v>
       </c>
       <c r="S38" s="21">
         <v>10</v>
@@ -2845,28 +2845,28 @@
         <v>46</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="21">
         <v>1</v>
       </c>
       <c r="H39" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="21">
         <v>1</v>
       </c>
       <c r="J39" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="21">
         <v>2</v>
@@ -2878,22 +2878,22 @@
         <v>2</v>
       </c>
       <c r="N39" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="21">
         <v>2</v>
       </c>
       <c r="R39" s="21">
-        <v>75</v>
+        <v>58.33</v>
       </c>
       <c r="S39" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2904,10 +2904,10 @@
         <v>46</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E40" s="21">
         <v>1</v>
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="21">
         <v>1</v>
@@ -2931,16 +2931,16 @@
         <v>2</v>
       </c>
       <c r="L40" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N40" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="21">
         <v>1</v>
@@ -2949,10 +2949,10 @@
         <v>2</v>
       </c>
       <c r="R40" s="21">
-        <v>66.67</v>
+        <v>91.67</v>
       </c>
       <c r="S40" s="21">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -2963,10 +2963,10 @@
         <v>46</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E41" s="21">
         <v>1</v>
@@ -2978,10 +2978,10 @@
         <v>1</v>
       </c>
       <c r="H41" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="21">
         <v>1</v>
@@ -2990,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="L41" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="21">
         <v>2</v>
@@ -3008,10 +3008,10 @@
         <v>2</v>
       </c>
       <c r="R41" s="21">
-        <v>91.67</v>
+        <v>83.33</v>
       </c>
       <c r="S41" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -3022,55 +3022,55 @@
         <v>46</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E42" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="21">
         <v>1</v>
       </c>
       <c r="H42" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L42" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="21">
         <v>2</v>
       </c>
       <c r="N42" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="21">
         <v>0</v>
       </c>
       <c r="P42" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="21">
         <v>0</v>
       </c>
       <c r="R42" s="21">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="S42" s="21">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -3081,10 +3081,10 @@
         <v>46</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E43" s="21">
         <v>1</v>
@@ -3102,34 +3102,34 @@
         <v>1</v>
       </c>
       <c r="J43" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="21">
         <v>2</v>
       </c>
       <c r="L43" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="21">
         <v>2</v>
       </c>
       <c r="N43" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="21">
         <v>1</v>
       </c>
       <c r="P43" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="21">
         <v>2</v>
       </c>
       <c r="R43" s="21">
-        <v>75</v>
+        <v>91.67</v>
       </c>
       <c r="S43" s="21">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -3140,10 +3140,10 @@
         <v>46</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E44" s="21">
         <v>1</v>
@@ -3167,7 +3167,7 @@
         <v>2</v>
       </c>
       <c r="L44" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="21">
         <v>2</v>
@@ -3176,19 +3176,19 @@
         <v>1</v>
       </c>
       <c r="O44" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="21">
         <v>2</v>
       </c>
       <c r="R44" s="21">
-        <v>75</v>
+        <v>83.33</v>
       </c>
       <c r="S44" s="21">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -3199,37 +3199,37 @@
         <v>46</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E45" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="21">
         <v>1</v>
       </c>
       <c r="H45" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="21">
         <v>2</v>
       </c>
       <c r="L45" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45" s="21">
         <v>1</v>
@@ -3244,10 +3244,10 @@
         <v>2</v>
       </c>
       <c r="R45" s="21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="S45" s="21">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -3258,13 +3258,13 @@
         <v>46</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E46" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="21">
         <v>1</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="21">
         <v>1</v>
@@ -3288,25 +3288,25 @@
         <v>0</v>
       </c>
       <c r="M46" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46" s="21">
         <v>1</v>
       </c>
       <c r="O46" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="21">
         <v>1</v>
       </c>
       <c r="Q46" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R46" s="21">
         <v>66.67</v>
       </c>
       <c r="S46" s="21">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -3317,28 +3317,28 @@
         <v>46</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="21">
         <v>1</v>
       </c>
       <c r="H47" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="21">
         <v>2</v>
@@ -3350,10 +3350,10 @@
         <v>2</v>
       </c>
       <c r="N47" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="21">
         <v>1</v>
@@ -3362,10 +3362,10 @@
         <v>2</v>
       </c>
       <c r="R47" s="21">
-        <v>75</v>
+        <v>58.33</v>
       </c>
       <c r="S47" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -3376,10 +3376,10 @@
         <v>46</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E48" s="21">
         <v>1</v>
@@ -3391,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="21">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="L48" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" s="21">
         <v>2</v>
@@ -3421,10 +3421,10 @@
         <v>2</v>
       </c>
       <c r="R48" s="21">
-        <v>91.67</v>
+        <v>75</v>
       </c>
       <c r="S48" s="21">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -3435,28 +3435,28 @@
         <v>46</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E49" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="21">
         <v>1</v>
       </c>
       <c r="H49" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="21">
         <v>1</v>
       </c>
       <c r="J49" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="21">
         <v>2</v>
@@ -3468,10 +3468,10 @@
         <v>2</v>
       </c>
       <c r="N49" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" s="21">
         <v>1</v>
@@ -3480,10 +3480,10 @@
         <v>2</v>
       </c>
       <c r="R49" s="21">
-        <v>58.33</v>
+        <v>83.33</v>
       </c>
       <c r="S49" s="21">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -3494,28 +3494,28 @@
         <v>46</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E50" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="21">
         <v>1</v>
       </c>
       <c r="H50" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="21">
         <v>1</v>
       </c>
       <c r="J50" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="21">
         <v>2</v>
@@ -3527,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="N50" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="21">
         <v>1</v>
@@ -3539,10 +3539,10 @@
         <v>2</v>
       </c>
       <c r="R50" s="21">
-        <v>58.33</v>
+        <v>91.67</v>
       </c>
       <c r="S50" s="21">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -3553,34 +3553,34 @@
         <v>46</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E51" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="21">
         <v>1</v>
       </c>
       <c r="H51" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L51" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="21">
         <v>2</v>
@@ -3601,7 +3601,7 @@
         <v>66.67</v>
       </c>
       <c r="S51" s="21">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -3612,10 +3612,10 @@
         <v>46</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E52" s="21">
         <v>1</v>
@@ -3627,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="21">
         <v>0</v>
@@ -3648,19 +3648,19 @@
         <v>1</v>
       </c>
       <c r="O52" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="21">
         <v>1</v>
       </c>
       <c r="Q52" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R52" s="21">
-        <v>75</v>
+        <v>66.67</v>
       </c>
       <c r="S52" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -3671,16 +3671,16 @@
         <v>46</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="21">
         <v>1</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="21">
         <v>1</v>
@@ -3698,7 +3698,7 @@
         <v>2</v>
       </c>
       <c r="L53" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="21">
         <v>2</v>
@@ -3707,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="O53" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="21">
         <v>1</v>
@@ -3716,10 +3716,10 @@
         <v>2</v>
       </c>
       <c r="R53" s="21">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
       <c r="S53" s="21">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -3730,13 +3730,13 @@
         <v>46</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E54" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="21">
         <v>1</v>
@@ -3745,22 +3745,22 @@
         <v>1</v>
       </c>
       <c r="H54" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="21">
         <v>0</v>
       </c>
       <c r="J54" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L54" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N54" s="21">
         <v>1</v>
@@ -3775,10 +3775,10 @@
         <v>2</v>
       </c>
       <c r="R54" s="21">
-        <v>66.67</v>
+        <v>58.33</v>
       </c>
       <c r="S54" s="21">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -3789,16 +3789,16 @@
         <v>46</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="21">
         <v>2</v>
       </c>
       <c r="F55" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="21">
         <v>1</v>
@@ -3816,7 +3816,7 @@
         <v>2</v>
       </c>
       <c r="L55" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="21">
         <v>2</v>
@@ -3848,13 +3848,13 @@
         <v>46</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E56" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="21">
         <v>1</v>
@@ -3863,16 +3863,16 @@
         <v>1</v>
       </c>
       <c r="H56" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="21">
         <v>1</v>
       </c>
       <c r="J56" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L56" s="21">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>2</v>
       </c>
       <c r="N56" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="21">
         <v>1</v>
@@ -3893,10 +3893,10 @@
         <v>2</v>
       </c>
       <c r="R56" s="21">
-        <v>91.67</v>
+        <v>50</v>
       </c>
       <c r="S56" s="21">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -3907,10 +3907,10 @@
         <v>46</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E57" s="21">
         <v>2</v>
@@ -3928,13 +3928,13 @@
         <v>1</v>
       </c>
       <c r="J57" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="21">
         <v>2</v>
       </c>
       <c r="L57" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="21">
         <v>2</v>
@@ -3943,7 +3943,7 @@
         <v>1</v>
       </c>
       <c r="O57" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="21">
         <v>1</v>
@@ -3952,10 +3952,10 @@
         <v>2</v>
       </c>
       <c r="R57" s="21">
-        <v>66.67</v>
+        <v>91.67</v>
       </c>
       <c r="S57" s="21">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -3966,13 +3966,13 @@
         <v>46</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E58" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="21">
         <v>1</v>
@@ -3981,13 +3981,13 @@
         <v>1</v>
       </c>
       <c r="H58" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="21">
         <v>1</v>
       </c>
       <c r="J58" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="21">
         <v>2</v>
@@ -4005,16 +4005,16 @@
         <v>1</v>
       </c>
       <c r="P58" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="21">
         <v>2</v>
       </c>
       <c r="R58" s="21">
-        <v>91.67</v>
+        <v>83.33</v>
       </c>
       <c r="S58" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -4025,13 +4025,13 @@
         <v>46</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E59" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" s="21">
         <v>1</v>
@@ -4040,25 +4040,25 @@
         <v>1</v>
       </c>
       <c r="H59" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L59" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="21">
         <v>2</v>
       </c>
-      <c r="N59" s="21">
-        <v>0</v>
+      <c r="N59" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="O59" s="21">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>2</v>
       </c>
       <c r="R59" s="21">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="S59" s="21">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -4084,16 +4084,16 @@
         <v>46</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E60" s="21">
         <v>2</v>
       </c>
       <c r="F60" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="21">
         <v>1</v>
@@ -4102,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="I60" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="21">
         <v>2</v>
@@ -4114,25 +4114,25 @@
         <v>0</v>
       </c>
       <c r="M60" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N60" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="21">
         <v>0</v>
       </c>
       <c r="R60" s="21">
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="S60" s="21">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -4143,13 +4143,13 @@
         <v>46</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E61" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="21">
         <v>1</v>
@@ -4158,13 +4158,13 @@
         <v>1</v>
       </c>
       <c r="H61" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="21">
         <v>2</v>
@@ -4179,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="O61" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="21">
         <v>1</v>
@@ -4188,10 +4188,10 @@
         <v>2</v>
       </c>
       <c r="R61" s="21">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
       <c r="S61" s="21">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -4202,10 +4202,10 @@
         <v>46</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E62" s="21">
         <v>1</v>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="21">
         <v>2</v>
@@ -4235,10 +4235,10 @@
         <v>2</v>
       </c>
       <c r="N62" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" s="21">
         <v>1</v>
@@ -4247,10 +4247,10 @@
         <v>2</v>
       </c>
       <c r="R62" s="21">
-        <v>75</v>
+        <v>83.33</v>
       </c>
       <c r="S62" s="21">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -4261,25 +4261,25 @@
         <v>46</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D63" s="21" t="s">
         <v>102</v>
       </c>
       <c r="E63" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="21">
         <v>1</v>
       </c>
       <c r="H63" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="21">
         <v>1</v>
@@ -4290,11 +4290,11 @@
       <c r="L63" s="21">
         <v>1</v>
       </c>
-      <c r="M63" s="21">
-        <v>2</v>
+      <c r="M63" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="N63" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" s="21">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         <v>2</v>
       </c>
       <c r="R63" s="21">
-        <v>75</v>
+        <v>66.67</v>
       </c>
       <c r="S63" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -4320,7 +4320,7 @@
         <v>46</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D64" s="21" t="s">
         <v>103</v>
@@ -4379,7 +4379,7 @@
         <v>46</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D65" s="21" t="s">
         <v>104</v>
@@ -4403,16 +4403,16 @@
         <v>1</v>
       </c>
       <c r="K65" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L65" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="21">
         <v>2</v>
       </c>
       <c r="N65" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" s="21">
         <v>1</v>
@@ -4424,10 +4424,10 @@
         <v>2</v>
       </c>
       <c r="R65" s="21">
-        <v>66.67</v>
+        <v>91.67</v>
       </c>
       <c r="S65" s="21">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
@@ -4438,13 +4438,13 @@
         <v>46</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D66" s="21" t="s">
         <v>105</v>
       </c>
       <c r="E66" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" s="21">
         <v>1</v>
@@ -4453,7 +4453,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="21">
         <v>1</v>
@@ -4471,7 +4471,7 @@
         <v>2</v>
       </c>
       <c r="N66" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" s="21">
         <v>1</v>
@@ -4480,13 +4480,13 @@
         <v>1</v>
       </c>
       <c r="Q66" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R66" s="21">
-        <v>66.67</v>
+        <v>91.67</v>
       </c>
       <c r="S66" s="21">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
@@ -4497,13 +4497,13 @@
         <v>46</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D67" s="21" t="s">
         <v>106</v>
       </c>
       <c r="E67" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" s="21">
         <v>1</v>
@@ -4512,10 +4512,10 @@
         <v>1</v>
       </c>
       <c r="H67" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" s="21">
         <v>1</v>
@@ -4524,16 +4524,16 @@
         <v>2</v>
       </c>
       <c r="L67" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" s="21">
         <v>2</v>
       </c>
       <c r="N67" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" s="21">
         <v>1</v>
@@ -4542,10 +4542,10 @@
         <v>2</v>
       </c>
       <c r="R67" s="21">
-        <v>91.67</v>
+        <v>66.67</v>
       </c>
       <c r="S67" s="21">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -4556,7 +4556,7 @@
         <v>46</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D68" s="21" t="s">
         <v>107</v>
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="21">
         <v>1</v>
@@ -4583,7 +4583,7 @@
         <v>2</v>
       </c>
       <c r="L68" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" s="21">
         <v>2</v>
@@ -4592,19 +4592,19 @@
         <v>1</v>
       </c>
       <c r="O68" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" s="21">
         <v>1</v>
       </c>
       <c r="Q68" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R68" s="21">
         <v>83.33</v>
       </c>
       <c r="S68" s="21">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -4615,31 +4615,31 @@
         <v>46</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D69" s="21" t="s">
         <v>108</v>
       </c>
       <c r="E69" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="21">
         <v>1</v>
       </c>
       <c r="H69" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L69" s="21">
         <v>1</v>
@@ -4648,22 +4648,22 @@
         <v>2</v>
       </c>
       <c r="N69" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" s="21">
         <v>0</v>
       </c>
       <c r="P69" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R69" s="21">
-        <v>91.67</v>
+        <v>25</v>
       </c>
       <c r="S69" s="21">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D70" s="21" t="s">
         <v>109</v>
@@ -4695,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="21">
         <v>2</v>
@@ -4707,7 +4707,7 @@
         <v>2</v>
       </c>
       <c r="N70" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" s="21">
         <v>1</v>
@@ -4719,10 +4719,10 @@
         <v>2</v>
       </c>
       <c r="R70" s="21">
-        <v>75</v>
+        <v>58.33</v>
       </c>
       <c r="S70" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -4733,7 +4733,7 @@
         <v>46</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D71" s="21" t="s">
         <v>110</v>
@@ -4766,7 +4766,7 @@
         <v>2</v>
       </c>
       <c r="N71" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" s="21">
         <v>1</v>
@@ -4775,13 +4775,13 @@
         <v>1</v>
       </c>
       <c r="Q71" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R71" s="21">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
       <c r="S71" s="21">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -4792,7 +4792,7 @@
         <v>46</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D72" s="21" t="s">
         <v>111</v>
@@ -4813,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="21">
         <v>2</v>
@@ -4837,10 +4837,10 @@
         <v>2</v>
       </c>
       <c r="R72" s="21">
-        <v>91.67</v>
+        <v>83.33</v>
       </c>
       <c r="S72" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -4851,13 +4851,13 @@
         <v>46</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D73" s="21" t="s">
         <v>112</v>
       </c>
       <c r="E73" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" s="21">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" s="21">
         <v>1</v>
@@ -4887,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="O73" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73" s="21">
         <v>1</v>
@@ -4896,10 +4896,10 @@
         <v>2</v>
       </c>
       <c r="R73" s="21">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
       <c r="S73" s="21">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74">
@@ -4910,7 +4910,7 @@
         <v>46</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D74" s="21" t="s">
         <v>113</v>
@@ -4919,7 +4919,7 @@
         <v>2</v>
       </c>
       <c r="F74" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" s="21">
         <v>1</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" s="21">
         <v>0</v>
@@ -4937,10 +4937,10 @@
         <v>2</v>
       </c>
       <c r="L74" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N74" s="21">
         <v>1</v>
@@ -4955,10 +4955,10 @@
         <v>2</v>
       </c>
       <c r="R74" s="21">
-        <v>83.33</v>
+        <v>50</v>
       </c>
       <c r="S74" s="21">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -4969,13 +4969,13 @@
         <v>46</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D75" s="21" t="s">
         <v>114</v>
       </c>
       <c r="E75" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" s="21">
         <v>1</v>
@@ -4984,19 +4984,19 @@
         <v>1</v>
       </c>
       <c r="H75" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="21">
         <v>1</v>
       </c>
       <c r="J75" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="21">
         <v>2</v>
       </c>
       <c r="L75" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75" s="21">
         <v>2</v>
@@ -5014,10 +5014,10 @@
         <v>2</v>
       </c>
       <c r="R75" s="21">
-        <v>83.33</v>
+        <v>91.67</v>
       </c>
       <c r="S75" s="21">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
@@ -5028,7 +5028,7 @@
         <v>46</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D76" s="21" t="s">
         <v>115</v>
@@ -5067,16 +5067,16 @@
         <v>0</v>
       </c>
       <c r="P76" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="21">
         <v>2</v>
       </c>
       <c r="R76" s="21">
-        <v>83.33</v>
+        <v>75</v>
       </c>
       <c r="S76" s="21">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -5087,13 +5087,13 @@
         <v>46</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D77" s="21" t="s">
         <v>116</v>
       </c>
       <c r="E77" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" s="21">
         <v>1</v>
@@ -5102,13 +5102,13 @@
         <v>1</v>
       </c>
       <c r="H77" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="21">
         <v>2</v>
@@ -5123,19 +5123,19 @@
         <v>1</v>
       </c>
       <c r="O77" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77" s="21">
         <v>1</v>
       </c>
       <c r="Q77" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R77" s="21">
-        <v>66.67</v>
+        <v>75</v>
       </c>
       <c r="S77" s="21">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
@@ -5146,16 +5146,16 @@
         <v>46</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D78" s="21" t="s">
         <v>117</v>
       </c>
       <c r="E78" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" s="21">
         <v>1</v>
@@ -5167,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="J78" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="21">
         <v>2</v>
       </c>
-      <c r="L78" s="21" t="s">
-        <v>50</v>
+      <c r="L78" s="21">
+        <v>1</v>
       </c>
       <c r="M78" s="21">
         <v>2</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P78" s="21">
         <v>1</v>
@@ -5191,10 +5191,10 @@
         <v>2</v>
       </c>
       <c r="R78" s="21">
-        <v>58.33</v>
+        <v>75</v>
       </c>
       <c r="S78" s="21">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
@@ -5205,13 +5205,13 @@
         <v>46</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D79" s="21" t="s">
         <v>118</v>
       </c>
       <c r="E79" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" s="21">
         <v>1</v>
@@ -5220,10 +5220,10 @@
         <v>1</v>
       </c>
       <c r="H79" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" s="21">
         <v>1</v>
@@ -5232,7 +5232,7 @@
         <v>2</v>
       </c>
       <c r="L79" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" s="21">
         <v>2</v>
@@ -5250,10 +5250,10 @@
         <v>2</v>
       </c>
       <c r="R79" s="21">
-        <v>83.33</v>
+        <v>91.67</v>
       </c>
       <c r="S79" s="21">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
@@ -5264,7 +5264,7 @@
         <v>46</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D80" s="21" t="s">
         <v>119</v>
@@ -5273,7 +5273,7 @@
         <v>2</v>
       </c>
       <c r="F80" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" s="21">
         <v>1</v>
@@ -5285,19 +5285,19 @@
         <v>1</v>
       </c>
       <c r="J80" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="21">
         <v>2</v>
       </c>
       <c r="L80" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80" s="21">
         <v>2</v>
       </c>
       <c r="N80" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80" s="21">
         <v>1</v>
@@ -5309,10 +5309,10 @@
         <v>2</v>
       </c>
       <c r="R80" s="21">
-        <v>91.67</v>
+        <v>58.33</v>
       </c>
       <c r="S80" s="21">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -5323,13 +5323,13 @@
         <v>46</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D81" s="21" t="s">
         <v>120</v>
       </c>
       <c r="E81" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" s="21">
         <v>1</v>
@@ -5338,28 +5338,28 @@
         <v>1</v>
       </c>
       <c r="H81" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" s="21">
         <v>1</v>
       </c>
       <c r="J81" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="21">
         <v>2</v>
       </c>
       <c r="L81" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N81" s="21">
         <v>1</v>
       </c>
       <c r="O81" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P81" s="21">
         <v>1</v>
@@ -5368,10 +5368,10 @@
         <v>2</v>
       </c>
       <c r="R81" s="21">
-        <v>91.67</v>
+        <v>66.67</v>
       </c>
       <c r="S81" s="21">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82">
@@ -5382,7 +5382,7 @@
         <v>46</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D82" s="21" t="s">
         <v>121</v>
@@ -5391,7 +5391,7 @@
         <v>2</v>
       </c>
       <c r="F82" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="21">
         <v>1</v>
@@ -5409,7 +5409,7 @@
         <v>2</v>
       </c>
       <c r="L82" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82" s="21">
         <v>2</v>
@@ -5441,7 +5441,7 @@
         <v>46</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D83" s="21" t="s">
         <v>122</v>
@@ -5462,16 +5462,16 @@
         <v>1</v>
       </c>
       <c r="J83" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="21">
         <v>2</v>
       </c>
       <c r="L83" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N83" s="21">
         <v>1</v>
@@ -5486,10 +5486,10 @@
         <v>2</v>
       </c>
       <c r="R83" s="21">
-        <v>91.67</v>
+        <v>66.67</v>
       </c>
       <c r="S83" s="21">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -5500,40 +5500,40 @@
         <v>46</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D84" s="21" t="s">
         <v>123</v>
       </c>
       <c r="E84" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="21">
         <v>0</v>
       </c>
       <c r="I84" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="21">
         <v>2</v>
       </c>
       <c r="L84" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N84" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" s="21">
         <v>1</v>
@@ -5542,13 +5542,13 @@
         <v>1</v>
       </c>
       <c r="Q84" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R84" s="21">
-        <v>33.33</v>
+        <v>83.33</v>
       </c>
       <c r="S84" s="21">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
@@ -5559,7 +5559,7 @@
         <v>46</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D85" s="21" t="s">
         <v>124</v>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" s="21">
         <v>1</v>
@@ -5586,16 +5586,16 @@
         <v>2</v>
       </c>
       <c r="L85" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N85" s="21">
         <v>1</v>
       </c>
       <c r="O85" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P85" s="21">
         <v>1</v>
@@ -5604,10 +5604,10 @@
         <v>2</v>
       </c>
       <c r="R85" s="21">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
       <c r="S85" s="21">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86">
@@ -5618,7 +5618,7 @@
         <v>46</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D86" s="21" t="s">
         <v>125</v>
@@ -5636,13 +5636,13 @@
         <v>1</v>
       </c>
       <c r="I86" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" s="21">
         <v>1</v>
       </c>
       <c r="K86" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L86" s="21">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="O86" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86" s="21">
         <v>1</v>
@@ -5663,10 +5663,10 @@
         <v>2</v>
       </c>
       <c r="R86" s="21">
-        <v>91.67</v>
+        <v>66.67</v>
       </c>
       <c r="S86" s="21">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -5677,7 +5677,7 @@
         <v>46</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D87" s="21" t="s">
         <v>126</v>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" s="21">
         <v>2</v>
@@ -5710,10 +5710,10 @@
         <v>2</v>
       </c>
       <c r="N87" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O87" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" s="21">
         <v>1</v>
@@ -5722,10 +5722,10 @@
         <v>2</v>
       </c>
       <c r="R87" s="21">
-        <v>83.33</v>
+        <v>75</v>
       </c>
       <c r="S87" s="21">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
@@ -5736,13 +5736,13 @@
         <v>46</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D88" s="21" t="s">
         <v>127</v>
       </c>
       <c r="E88" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" s="21">
         <v>1</v>
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" s="21">
         <v>1</v>
@@ -5763,7 +5763,7 @@
         <v>2</v>
       </c>
       <c r="L88" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" s="21">
         <v>2</v>
@@ -5781,10 +5781,10 @@
         <v>2</v>
       </c>
       <c r="R88" s="21">
-        <v>75</v>
+        <v>91.67</v>
       </c>
       <c r="S88" s="21">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -5795,7 +5795,7 @@
         <v>46</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D89" s="21" t="s">
         <v>128</v>
@@ -5810,10 +5810,10 @@
         <v>1</v>
       </c>
       <c r="H89" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" s="21">
         <v>1</v>
@@ -5822,7 +5822,7 @@
         <v>2</v>
       </c>
       <c r="L89" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" s="21">
         <v>2</v>
@@ -5831,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="O89" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P89" s="21">
         <v>1</v>
@@ -5854,7 +5854,7 @@
         <v>46</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D90" s="21" t="s">
         <v>129</v>
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" s="21">
         <v>0</v>
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="21">
         <v>2</v>
@@ -5884,13 +5884,13 @@
         <v>0</v>
       </c>
       <c r="M90" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N90" s="21">
         <v>0</v>
       </c>
       <c r="O90" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90" s="21">
         <v>1</v>
@@ -5899,10 +5899,10 @@
         <v>2</v>
       </c>
       <c r="R90" s="21">
-        <v>58.33</v>
+        <v>41.67</v>
       </c>
       <c r="S90" s="21">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -6331,7 +6331,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1">
         <v>1.7468354430379747</v>
